--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed5/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.952</v>
+        <v>-13.01</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.896</v>
+        <v>-13.092</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.921999999999999</v>
+        <v>-8.001000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.762</v>
+        <v>-13.138</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.48</v>
+        <v>-7.519</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.524</v>
+        <v>-12.672</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.558</v>
+        <v>-7.858</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.152</v>
+        <v>-21.859</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -627,18 +627,18 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.726</v>
+        <v>13.395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.3</v>
+        <v>-21.792</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.422</v>
+        <v>-13.232</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,18 +672,18 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.764</v>
+        <v>-12.249</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>14.15</v>
+        <v>12.877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.302</v>
+        <v>-21.206</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.396000000000001</v>
+        <v>-7.822</v>
       </c>
       <c r="E19" t="n">
-        <v>13.656</v>
+        <v>12.853</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.147999999999999</v>
+        <v>-7.858</v>
       </c>
       <c r="E21" t="n">
-        <v>13.038</v>
+        <v>13.378</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.05</v>
+        <v>-13.137</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.566000000000001</v>
+        <v>-8.069999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.396000000000001</v>
+        <v>-7.861</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
